--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16470" windowHeight="6450"/>
+    <workbookView windowWidth="4920" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users?delay=3</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>https://jsonplaceholder.typicode.com/posts/1</t>
+  </si>
+  <si>
+    <t>"{\"data\":{\"id\":2,\"email\":\"janet.weaver@reqres.in\",\"first_name\":\"Janet\",\"last_name\":\"Weaver\",\"avatar\":\"https://reqres.in/img/faces/2-image.jpg\"},\"support\":{\"url\":\"https://reqres.in/#support-heading\",\"text\":\"To keep ReqRes free, contributions towards server costs are appreciated!\"}}"</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>{ \"name\": \"John Smith\", \"email\": \"john.smith@example.com\" }</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/users/3</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/unknown</t>
+  </si>
+  <si>
+    <t>https://reqres.in/api/unknown/23</t>
+  </si>
   <si>
     <t>post</t>
   </si>
@@ -24,30 +57,6 @@
   </si>
   <si>
     <t>https://my-api.com/users</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/users/2</t>
-  </si>
-  <si>
-    <t>"{\"data\":{\"id\":2,\"email\":\"janet.weaver@reqres.in\",\"first_name\":\"Janet\",\"last_name\":\"Weaver\",\"avatar\":\"https://reqres.in/img/faces/2-image.jpg\"},\"support\":{\"url\":\"https://reqres.in/#support-heading\",\"text\":\"To keep ReqRes free, contributions towards server costs are appreciated!\"}}"</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>{ \"name\": \"John Smith\", \"email\": \"john.smith@example.com\" }</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/users/3</t>
   </si>
 </sst>
 </file>
@@ -55,11 +64,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -70,6 +79,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -78,12 +96,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -93,22 +179,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,30 +194,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,69 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +460,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -476,6 +485,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,15 +525,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -526,10 +535,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,141 +553,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,13 +1015,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
@@ -1015,31 +1030,31 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1">
         <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1048,18 +1063,18 @@
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1068,13 +1083,73 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="5:5">
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://reqres.in/api/unknown/23"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testdata/data.xlsx
+++ b/testdata/data.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="4920" windowHeight="6270"/>
+    <workbookView windowWidth="14175" windowHeight="6450"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="API" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:B3"/>
@@ -15,62 +15,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
-    <t>get</t>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients</t>
   </si>
   <si>
     <t>""</t>
   </si>
   <si>
-    <t>https://reqres.in/api/users?delay=3</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v2/fetchAllClients</t>
   </si>
   <si>
-    <t>application/json</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v3/fetchAllClients</t>
   </si>
   <si>
-    <t>https://jsonplaceholder.typicode.com/posts/1</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v4/fetchAllClients</t>
   </si>
   <si>
-    <t>"{\"data\":{\"id\":2,\"email\":\"janet.weaver@reqres.in\",\"first_name\":\"Janet\",\"last_name\":\"Weaver\",\"avatar\":\"https://reqres.in/img/faces/2-image.jpg\"},\"support\":{\"url\":\"https://reqres.in/#support-heading\",\"text\":\"To keep ReqRes free, contributions towards server costs are appreciated!\"}}"</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v5/fetchAllClients</t>
   </si>
   <si>
-    <t>put</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v6/fetchAllClients</t>
   </si>
   <si>
-    <t>{ \"name\": \"John Smith\", \"email\": \"john.smith@example.com\" }</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/users/3</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/unknown</t>
-  </si>
-  <si>
-    <t>https://reqres.in/api/unknown/23</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{ \"name\": \"John\", \"email\": \"john@example.com\" }</t>
-  </si>
-  <si>
-    <t>https://my-api.com/users</t>
+    <t>https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v7/fetchAllClients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +63,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -87,6 +77,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.55"/>
+      <color rgb="FF212529"/>
+      <name val="var(--bs-font-monospace)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -96,14 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,21 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -140,17 +143,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,8 +182,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -171,60 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,25 +235,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +355,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,145 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +470,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -493,31 +513,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,15 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,130 +549,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -684,17 +680,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,140 +1011,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
+        <v>200</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="60" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>200</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" ht="60" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>200</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" ht="60" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>203</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="5" ht="60" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" ht="60" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" ht="60" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>200</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://reqres.in/api/unknown/23"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients" tooltip="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v1/fetchAllClients"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v2/fetchAllClients"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v3/fetchAllClients"/>
+    <hyperlink ref="B4" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v4/fetchAllClients"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v5/fetchAllClients"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v6/fetchAllClients"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://91fjgvixl9.execute-api.ap-south-1.amazonaws.com/testing/v7/fetchAllClients"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
